--- a/Typocrypha/Assets/excel/gameflows/battle_interrupt_tests.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/battle_interrupt_tests.xlsx
@@ -104,9 +104,6 @@
     <t>bgm_battle_a1</t>
   </si>
   <si>
-    <t>[set-bg=bg_battle_2]Battle!</t>
-  </si>
-  <si>
     <t>INTERRUPT</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>You registered the root {last-cast,root}. Amazing!</t>
+  </si>
+  <si>
+    <t>Battle!</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -639,15 +639,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -655,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">

--- a/Typocrypha/Assets/excel/gameflows/battle_interrupt_tests.xlsx
+++ b/Typocrypha/Assets/excel/gameflows/battle_interrupt_tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Battle!</t>
+  </si>
+  <si>
+    <t>check-register-style</t>
+  </si>
+  <si>
+    <t>You registered the root {last-cast,style}. Stylish!</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,38 +686,38 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,6 +727,42 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
